--- a/KA_Data/WB_Data/WBlatlong.xlsx
+++ b/KA_Data/WB_Data/WBlatlong.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\WB_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAF6E1E-A4F0-4D8C-85E4-812100EA9ED3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730ED714-B35F-4437-A8FA-F044F79610AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C0B7F1B-53BD-4B18-A66F-3D9B7DFC6CBF}"/>
   </bookViews>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FB6141-6D99-4AC2-BB38-77581DF4A652}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
